--- a/data/trans_orig/P0902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>23592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14718</v>
+        <v>15671</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33915</v>
+        <v>33544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0864160675271672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05391000287268033</v>
+        <v>0.05740244696786364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1242278907973116</v>
+        <v>0.1228677740003461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>35144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24562</v>
+        <v>24551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47035</v>
+        <v>47122</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1347338101840242</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09416648262538166</v>
+        <v>0.09412538447155459</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1803238778277955</v>
+        <v>0.1806545951106864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -786,19 +786,19 @@
         <v>58736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43865</v>
+        <v>44804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73066</v>
+        <v>74890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1100241114435033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08216851620753873</v>
+        <v>0.08392681925884646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1368668497901559</v>
+        <v>0.1402831246019091</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>249418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239095</v>
+        <v>239466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258292</v>
+        <v>257339</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9135839324728328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8757721092026884</v>
+        <v>0.8771322259996541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9460899971273197</v>
+        <v>0.9425975530321365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -836,19 +836,19 @@
         <v>225694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213803</v>
+        <v>213716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236276</v>
+        <v>236287</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8652661898159758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8196761221722049</v>
+        <v>0.8193454048893137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9058335173746186</v>
+        <v>0.9058746155284454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -857,19 +857,19 @@
         <v>475112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460782</v>
+        <v>458958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>489983</v>
+        <v>489044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8899758885564967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8631331502098438</v>
+        <v>0.8597168753980909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9178314837924613</v>
+        <v>0.9160731807411534</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34127</v>
+        <v>34285</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60611</v>
+        <v>60451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09292173208034979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0692129176493621</v>
+        <v>0.06953204311785945</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1229250082565436</v>
+        <v>0.1226004113004917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -982,19 +982,19 @@
         <v>82405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66284</v>
+        <v>67314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100395</v>
+        <v>101614</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1635181945823884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1315301208245951</v>
+        <v>0.1335723274423275</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1992171098145096</v>
+        <v>0.2016351187300287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -1003,19 +1003,19 @@
         <v>128222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107850</v>
+        <v>106620</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150393</v>
+        <v>149275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1286049401714893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1081720337298018</v>
+        <v>0.1069380113339195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1508421895430007</v>
+        <v>0.1497207186538135</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>447258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>432464</v>
+        <v>432624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458948</v>
+        <v>458790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9070782679196502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8770749917434564</v>
+        <v>0.8773995886995083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9307870823506379</v>
+        <v>0.9304679568821406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -1053,19 +1053,19 @@
         <v>421544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403554</v>
+        <v>402335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>437665</v>
+        <v>436635</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8364818054176116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8007828901854898</v>
+        <v>0.7983648812699712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8684698791754046</v>
+        <v>0.8664276725576725</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>841</v>
@@ -1074,19 +1074,19 @@
         <v>868802</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>846631</v>
+        <v>847749</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>889174</v>
+        <v>890404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8713950598285107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8491578104569993</v>
+        <v>0.8502792813461857</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8918279662701981</v>
+        <v>0.8930619886660802</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8656</v>
+        <v>9397</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24487</v>
+        <v>24992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04703105550820661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02714834360725556</v>
+        <v>0.02947162605588356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07679746145058747</v>
+        <v>0.07838194053924179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>39841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29028</v>
+        <v>29500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52205</v>
+        <v>52468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1187814900158582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08654310335570152</v>
+        <v>0.08795100156558776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1556447847506214</v>
+        <v>0.1564286203634585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1220,19 +1220,19 @@
         <v>54836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41436</v>
+        <v>41952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70390</v>
+        <v>70031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08381464861834924</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06333266973257855</v>
+        <v>0.06412168437657222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1075872324125984</v>
+        <v>0.1070381188120468</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>303850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294359</v>
+        <v>293854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310190</v>
+        <v>309449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9529689444917934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9232025385494125</v>
+        <v>0.9216180594607581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9728516563927445</v>
+        <v>0.9705283739441165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -1270,19 +1270,19 @@
         <v>295571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283207</v>
+        <v>282944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306384</v>
+        <v>305912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8812185099841418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8443552152493784</v>
+        <v>0.8435713796365414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9134568966442983</v>
+        <v>0.912048998434412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>591</v>
@@ -1291,19 +1291,19 @@
         <v>599422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>583868</v>
+        <v>584227</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612822</v>
+        <v>612306</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9161853513816508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8924127675874016</v>
+        <v>0.8929618811879529</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9366673302674217</v>
+        <v>0.9358783156234278</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7191</v>
+        <v>7337</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21050</v>
+        <v>21346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03721586895705489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0200483269897252</v>
+        <v>0.02045643518243354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05868805726304872</v>
+        <v>0.05951346512187466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1416,19 +1416,19 @@
         <v>52930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40951</v>
+        <v>40772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66637</v>
+        <v>67262</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.142494107782091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102433249434777</v>
+        <v>0.1097627815365644</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1793951554809931</v>
+        <v>0.1810757506175645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1437,19 +1437,19 @@
         <v>66279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51022</v>
+        <v>52129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80838</v>
+        <v>82452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09077672299191829</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06988054107744919</v>
+        <v>0.07139658461518393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1107175560366987</v>
+        <v>0.11292829550671</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>345323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337621</v>
+        <v>337325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351480</v>
+        <v>351334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9627841310429451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9413119427369515</v>
+        <v>0.9404865348781254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799516730102747</v>
+        <v>0.9795435648175664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -1487,19 +1487,19 @@
         <v>318526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>304819</v>
+        <v>304194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>330505</v>
+        <v>330684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8575058922179091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8206048445190068</v>
+        <v>0.8189242493824352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8897566750565223</v>
+        <v>0.8902372184634355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -1508,19 +1508,19 @@
         <v>663848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>649289</v>
+        <v>647675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>679105</v>
+        <v>677998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9092232770080817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8892824439633013</v>
+        <v>0.8870717044932896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9301194589225507</v>
+        <v>0.9286034153848159</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8483</v>
+        <v>8132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23311</v>
+        <v>23506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07337726818409841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04172383787565955</v>
+        <v>0.04000070160575043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1146586287165889</v>
+        <v>0.115617631550679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1633,19 +1633,19 @@
         <v>23887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15749</v>
+        <v>15939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35007</v>
+        <v>33670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1150230261869739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07583928934605288</v>
+        <v>0.07675006475939729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1685725643073153</v>
+        <v>0.1621351936760801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>38805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27233</v>
+        <v>27199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52614</v>
+        <v>50527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09442105250477187</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06626488903070667</v>
+        <v>0.06618236614241166</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1280214807147703</v>
+        <v>0.1229439411408852</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179997</v>
+        <v>179802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194825</v>
+        <v>195176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9266227318159016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8853413712834112</v>
+        <v>0.8843823684493211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9582761621243404</v>
+        <v>0.9599992983942496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>176</v>
@@ -1704,19 +1704,19 @@
         <v>183781</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172661</v>
+        <v>173998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191919</v>
+        <v>191729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8849769738130261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8314274356926846</v>
+        <v>0.8378648063239199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.924160710653947</v>
+        <v>0.9232499352406029</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>366</v>
@@ -1725,19 +1725,19 @@
         <v>372171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>358362</v>
+        <v>360449</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>383743</v>
+        <v>383777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9055789474952282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.87197851928523</v>
+        <v>0.8770560588591149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9337351109692936</v>
+        <v>0.9338176338575883</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>22124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14512</v>
+        <v>13740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32676</v>
+        <v>31746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08169571343821168</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05358726396583281</v>
+        <v>0.05073544744806315</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1206600017611349</v>
+        <v>0.1172274603949269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1850,19 +1850,19 @@
         <v>45795</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34198</v>
+        <v>33506</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59609</v>
+        <v>57917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1646442118496814</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1229521792114689</v>
+        <v>0.1204626180481757</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2143102282660125</v>
+        <v>0.2082256145245852</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1871,19 +1871,19 @@
         <v>67919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52999</v>
+        <v>54966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>84259</v>
+        <v>84115</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1237239798246202</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0965444406833391</v>
+        <v>0.1001289156520459</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1534898037814377</v>
+        <v>0.1532276590085226</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>248687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238135</v>
+        <v>239065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256299</v>
+        <v>257071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9183042865617883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8793399982388651</v>
+        <v>0.8827725396050731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9464127360341672</v>
+        <v>0.9492645525519368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>227</v>
@@ -1921,19 +1921,19 @@
         <v>232349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218535</v>
+        <v>220227</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243946</v>
+        <v>244638</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8353557881503186</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7856897717339878</v>
+        <v>0.7917743854754148</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8770478207885313</v>
+        <v>0.8795373819518242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -1942,19 +1942,19 @@
         <v>481036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464696</v>
+        <v>464840</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495956</v>
+        <v>493989</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8762760201753799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8465101962185623</v>
+        <v>0.8467723409914774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9034555593166609</v>
+        <v>0.8998710843479542</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>57078</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44090</v>
+        <v>43827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73353</v>
+        <v>71784</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0928049447743805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07168714343478542</v>
+        <v>0.07125949390261488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1192677666522046</v>
+        <v>0.1167160432918248</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -2067,19 +2067,19 @@
         <v>85380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70055</v>
+        <v>69623</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102955</v>
+        <v>103445</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1337781334466339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1097661592578092</v>
+        <v>0.109088822907883</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1613154135802943</v>
+        <v>0.1620843160146308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -2088,19 +2088,19 @@
         <v>142457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120558</v>
+        <v>120299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166567</v>
+        <v>164682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1136706552502255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09619660727025346</v>
+        <v>0.09599014981863407</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1329080910695835</v>
+        <v>0.131404129582715</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>557949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>541674</v>
+        <v>543243</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>570937</v>
+        <v>571200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9071950552256195</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8807322333477955</v>
+        <v>0.8832839567081751</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9283128565652146</v>
+        <v>0.9287405060973849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>535</v>
@@ -2138,19 +2138,19 @@
         <v>552839</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>535264</v>
+        <v>534774</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>568164</v>
+        <v>568596</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8662218665533661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8386845864197057</v>
+        <v>0.8379156839853693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8902338407421907</v>
+        <v>0.890911177092117</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1075</v>
@@ -2159,19 +2159,19 @@
         <v>1110789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1086679</v>
+        <v>1088564</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1132688</v>
+        <v>1132947</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8863293447497744</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8670919089304165</v>
+        <v>0.868595870417285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9038033927297465</v>
+        <v>0.9040098501813659</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>75565</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58801</v>
+        <v>61601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92236</v>
+        <v>92962</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1015934733710818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07905499976617061</v>
+        <v>0.08281964774030065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1240079055194972</v>
+        <v>0.1249829999924659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>117</v>
@@ -2284,19 +2284,19 @@
         <v>128287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106687</v>
+        <v>109785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>149248</v>
+        <v>153141</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1637330237598867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1361655632902184</v>
+        <v>0.1401198299638661</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1904860996688326</v>
+        <v>0.1954547744519116</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>197</v>
@@ -2305,19 +2305,19 @@
         <v>203851</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>178596</v>
+        <v>177900</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231575</v>
+        <v>230765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.13347118479915</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1169356249524714</v>
+        <v>0.1164794777050801</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1516235056070318</v>
+        <v>0.1510925878959039</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>668230</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>651559</v>
+        <v>650833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>684994</v>
+        <v>682194</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8984065266289182</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8759920944805026</v>
+        <v>0.875017000007534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9209450002338292</v>
+        <v>0.9171803522596992</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>628</v>
@@ -2355,19 +2355,19 @@
         <v>655224</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>634263</v>
+        <v>630370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>676824</v>
+        <v>673726</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8362669762401133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8095139003311673</v>
+        <v>0.804545225548088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8638344367097812</v>
+        <v>0.8598801700361339</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1284</v>
@@ -2376,19 +2376,19 @@
         <v>1323455</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1295731</v>
+        <v>1296541</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1348710</v>
+        <v>1349406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8665288152008499</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8483764943929683</v>
+        <v>0.8489074121040961</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8830643750475287</v>
+        <v>0.8835205222949198</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>267438</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08162209187508913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>474</v>
@@ -2501,19 +2501,19 @@
         <v>493667</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1460901285196373</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>745</v>
@@ -2522,19 +2522,19 @@
         <v>761106</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1143532675669832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3009105</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2975734</v>
+        <v>2979542</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3039939</v>
+        <v>3043061</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9183779081249108</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9081931930598077</v>
+        <v>0.9093552930818768</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9277883829372469</v>
+        <v>0.9287413864729308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2823</v>
@@ -2572,19 +2572,19 @@
         <v>2885530</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2844698</v>
+        <v>2838080</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2927414</v>
+        <v>2921177</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8539098714803627</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8418267078347923</v>
+        <v>0.8398681061039814</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8663045923681294</v>
+        <v>0.8644589966958456</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5766</v>
@@ -2593,19 +2593,19 @@
         <v>5894635</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5842343</v>
+        <v>5840614</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5946140</v>
+        <v>5944484</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8856467324330168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8777900691335001</v>
+        <v>0.8775302162773841</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8933850716228688</v>
+        <v>0.8931362445922035</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>39127</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28436</v>
+        <v>28592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51417</v>
+        <v>53556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1327515567235165</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09647898348356405</v>
+        <v>0.09700811554899924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1744490360848318</v>
+        <v>0.1817077747721138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -2962,19 +2962,19 @@
         <v>78659</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64644</v>
+        <v>63506</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96172</v>
+        <v>95822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2738403524121162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2250478885120444</v>
+        <v>0.2210875676041075</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3348096049247333</v>
+        <v>0.3335884837789424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2983,19 +2983,19 @@
         <v>117786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98340</v>
+        <v>97011</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139584</v>
+        <v>137021</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.202387695572795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.168973777873177</v>
+        <v>0.1666906973198301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2398418744530811</v>
+        <v>0.2354377139077986</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>255611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243321</v>
+        <v>241182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266302</v>
+        <v>266146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8672484432764834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8255509639151682</v>
+        <v>0.8182922252278861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.903521016516436</v>
+        <v>0.9029918844510006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -3033,19 +3033,19 @@
         <v>208586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191073</v>
+        <v>191423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222601</v>
+        <v>223739</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7261596475878838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6651903950752669</v>
+        <v>0.6664115162210575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7749521114879555</v>
+        <v>0.7789124323958925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>428</v>
@@ -3054,19 +3054,19 @@
         <v>464197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442399</v>
+        <v>444962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483643</v>
+        <v>484972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.797612304427205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7601581255469188</v>
+        <v>0.7645622860922013</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8310262221268228</v>
+        <v>0.83330930268017</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>53692</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40750</v>
+        <v>39701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72160</v>
+        <v>73263</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1062097892154047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08060989770875231</v>
+        <v>0.07853437578144541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1427428805652096</v>
+        <v>0.1449243955305365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -3179,19 +3179,19 @@
         <v>96265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78965</v>
+        <v>80576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117095</v>
+        <v>116367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1837948488231418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1507645878378087</v>
+        <v>0.1538405999413115</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2235644161029975</v>
+        <v>0.2221746392335442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -3200,19 +3200,19 @@
         <v>149957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127862</v>
+        <v>127958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>174224</v>
+        <v>177314</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1456896732210411</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1242232000845654</v>
+        <v>0.1243169672817836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1692660451504108</v>
+        <v>0.172268364277727</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>451835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433367</v>
+        <v>432264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464777</v>
+        <v>465826</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8937902107845953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8572571194347907</v>
+        <v>0.8550756044694635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9193901022912477</v>
+        <v>0.9214656242185547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>393</v>
@@ -3250,19 +3250,19 @@
         <v>427500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406670</v>
+        <v>407398</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>444800</v>
+        <v>443189</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8162051511768582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7764355838970024</v>
+        <v>0.7778253607664557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8492354121621912</v>
+        <v>0.8461594000586884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>822</v>
@@ -3271,19 +3271,19 @@
         <v>879335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>855068</v>
+        <v>851978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901430</v>
+        <v>901334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8543103267789588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8307339548495898</v>
+        <v>0.8277316357222737</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.875776799915435</v>
+        <v>0.8756830327182173</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>37764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26659</v>
+        <v>27044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50840</v>
+        <v>52150</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1165403454472643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08227024363351884</v>
+        <v>0.08345669435560875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1568911112302026</v>
+        <v>0.1609340987748528</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3396,19 +3396,19 @@
         <v>58563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44218</v>
+        <v>45489</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74514</v>
+        <v>72360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1717285130173013</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1296649540642671</v>
+        <v>0.1333915662021822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2185040762824251</v>
+        <v>0.2121874864793234</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -3417,19 +3417,19 @@
         <v>96327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78248</v>
+        <v>78405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114818</v>
+        <v>116405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1448386934339697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1176544282528712</v>
+        <v>0.1178904623451774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1726409317895784</v>
+        <v>0.1750280230659509</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>286282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273206</v>
+        <v>271896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297387</v>
+        <v>297002</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8834596545527357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8431088887697974</v>
+        <v>0.8390659012251477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9177297563664812</v>
+        <v>0.9165433056443916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>263</v>
@@ -3467,19 +3467,19 @@
         <v>282457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266506</v>
+        <v>268660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296802</v>
+        <v>295531</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8282714869826987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7814959237175749</v>
+        <v>0.7878125135206766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.870335045935733</v>
+        <v>0.8666084337978178</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -3488,19 +3488,19 @@
         <v>568739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>550248</v>
+        <v>548661</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586818</v>
+        <v>586661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8551613065660303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8273590682104215</v>
+        <v>0.8249719769340489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8823455717471288</v>
+        <v>0.8821095376548224</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>56567</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43750</v>
+        <v>43864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71652</v>
+        <v>71225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1512567632848443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1169839105079144</v>
+        <v>0.1172881767671169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1915933765496926</v>
+        <v>0.1904498709781432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -3613,19 +3613,19 @@
         <v>125005</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105016</v>
+        <v>104908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142651</v>
+        <v>144062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3213907683612874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2699977034448846</v>
+        <v>0.2697194646274239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.366759115167087</v>
+        <v>0.3703871914163808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -3634,19 +3634,19 @@
         <v>181573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158638</v>
+        <v>158545</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206582</v>
+        <v>207823</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.23799279527884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2079321714292554</v>
+        <v>0.2078103331753094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2707735617080734</v>
+        <v>0.2724005305005751</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>317415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302330</v>
+        <v>302757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330232</v>
+        <v>330118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8487432367151557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8084066234503073</v>
+        <v>0.8095501290218569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8830160894920855</v>
+        <v>0.8827118232328831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>250</v>
@@ -3684,19 +3684,19 @@
         <v>263946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246300</v>
+        <v>244889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283935</v>
+        <v>284043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6786092316387127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6332408848329129</v>
+        <v>0.6296128085836192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7300022965551152</v>
+        <v>0.7302805353725761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>541</v>
@@ -3705,19 +3705,19 @@
         <v>581360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>556351</v>
+        <v>555110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>604295</v>
+        <v>604388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.76200720472116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7292264382919265</v>
+        <v>0.7275994694994249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7920678285707445</v>
+        <v>0.7921896668246906</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>24565</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16751</v>
+        <v>16164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37564</v>
+        <v>35080</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1155358521213163</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07878286001717019</v>
+        <v>0.07602547356708764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1766715634041988</v>
+        <v>0.1649892381503558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -3830,19 +3830,19 @@
         <v>58982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45747</v>
+        <v>46489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74173</v>
+        <v>73096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2686011606911559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2083273078016877</v>
+        <v>0.2117079333784076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3377767506306218</v>
+        <v>0.332874646818358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -3851,19 +3851,19 @@
         <v>83547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67610</v>
+        <v>68201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101597</v>
+        <v>101057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.193303231127282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1564288395290162</v>
+        <v>0.1577956820808658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2350656137673148</v>
+        <v>0.2338145052543109</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>188053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>175054</v>
+        <v>177538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195867</v>
+        <v>196454</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8844641478786837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8233284365958012</v>
+        <v>0.8350107618496442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9212171399828298</v>
+        <v>0.9239745264329124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>156</v>
@@ -3901,19 +3901,19 @@
         <v>160609</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145418</v>
+        <v>146495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173844</v>
+        <v>173102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7313988393088441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6622232493693783</v>
+        <v>0.6671253531816421</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7916726921983127</v>
+        <v>0.7882920666215925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>329</v>
@@ -3922,19 +3922,19 @@
         <v>348662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330612</v>
+        <v>331152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>364599</v>
+        <v>364008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.806696768872718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7649343862326851</v>
+        <v>0.7661854947456892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8435711604709837</v>
+        <v>0.8422043179191343</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>35123</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24421</v>
+        <v>25888</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47751</v>
+        <v>47828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1281950711521487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08913215589937939</v>
+        <v>0.09448673652070146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1742857346239515</v>
+        <v>0.1745680441112263</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -4047,19 +4047,19 @@
         <v>46720</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35296</v>
+        <v>35722</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61058</v>
+        <v>59845</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1668390069053801</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1260429052046062</v>
+        <v>0.1275654598496044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2180404978695824</v>
+        <v>0.2137095482603604</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -4068,19 +4068,19 @@
         <v>81843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65454</v>
+        <v>66227</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101356</v>
+        <v>97977</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1477280413163953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1181460865377204</v>
+        <v>0.1195405701988802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1829496093230642</v>
+        <v>0.176849812783968</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>238858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226230</v>
+        <v>226153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249560</v>
+        <v>248093</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8718049288478513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8257142653760485</v>
+        <v>0.8254319558887737</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9108678441006206</v>
+        <v>0.9055132634792986</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -4118,19 +4118,19 @@
         <v>233311</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218973</v>
+        <v>220186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>244735</v>
+        <v>244309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8331609930946199</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7819595021304173</v>
+        <v>0.7862904517396396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8739570947953937</v>
+        <v>0.8724345401503956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>451</v>
@@ -4139,19 +4139,19 @@
         <v>472169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452656</v>
+        <v>456035</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488558</v>
+        <v>487785</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8522719586836047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8170503906769356</v>
+        <v>0.8231501872160319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8818539134622793</v>
+        <v>0.8804594298011195</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>47961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35676</v>
+        <v>36036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62301</v>
+        <v>62424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07246297476862268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05390211507363826</v>
+        <v>0.05444642110033768</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09412939700090825</v>
+        <v>0.09431449456597039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -4264,19 +4264,19 @@
         <v>104693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85035</v>
+        <v>85126</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124592</v>
+        <v>124857</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1513032132739999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1228927864724025</v>
+        <v>0.1230245269418537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1800611956223558</v>
+        <v>0.1804443286641661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -4285,19 +4285,19 @@
         <v>152654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128755</v>
+        <v>128063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176840</v>
+        <v>177590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1127587608194881</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09510607287096193</v>
+        <v>0.09459487907072456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1306241275345814</v>
+        <v>0.1311784624139492</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>613906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>599566</v>
+        <v>599443</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>626191</v>
+        <v>625831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9275370252313773</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9058706029990919</v>
+        <v>0.90568550543403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9460978849263617</v>
+        <v>0.9455535788996625</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>540</v>
@@ -4335,19 +4335,19 @@
         <v>587248</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>567349</v>
+        <v>567084</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>606906</v>
+        <v>606815</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8486967867260001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8199388043776443</v>
+        <v>0.819555671335834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8771072135275976</v>
+        <v>0.8769754730581463</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1111</v>
@@ -4356,19 +4356,19 @@
         <v>1201154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1176968</v>
+        <v>1176218</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1225053</v>
+        <v>1225745</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8872412391805119</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8693758724654186</v>
+        <v>0.8688215375860507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9048939271290378</v>
+        <v>0.9054051209292754</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>81722</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65164</v>
+        <v>65592</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100837</v>
+        <v>103194</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1048927696472386</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08364022482359899</v>
+        <v>0.08418932049961823</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.129427880130898</v>
+        <v>0.1324527696161765</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -4481,19 +4481,19 @@
         <v>141275</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120998</v>
+        <v>120150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>164033</v>
+        <v>166487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1719045823927837</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1472323314126842</v>
+        <v>0.1462000054547485</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1995967694075704</v>
+        <v>0.2025829588163219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>201</v>
@@ -4502,19 +4502,19 @@
         <v>222996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>194463</v>
+        <v>195438</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>252892</v>
+        <v>253459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1392928036093622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1214697004933235</v>
+        <v>0.1220786016780779</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1579670082708735</v>
+        <v>0.1583207363478136</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>697376</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>678261</v>
+        <v>675904</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>713934</v>
+        <v>713506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8951072303527613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.870572119869102</v>
+        <v>0.8675472303838233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.916359775176401</v>
+        <v>0.9158106795003818</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>626</v>
@@ -4552,19 +4552,19 @@
         <v>680545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>657787</v>
+        <v>655333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>700822</v>
+        <v>701670</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8280954176072163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8004032305924299</v>
+        <v>0.7974170411836781</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8527676685873159</v>
+        <v>0.8537999945452515</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1271</v>
@@ -4573,19 +4573,19 @@
         <v>1377922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1348026</v>
+        <v>1347459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1406455</v>
+        <v>1405480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8607071963906378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8420329917291267</v>
+        <v>0.8416792636521864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8785302995066767</v>
+        <v>0.8779213983219222</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>376521</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1099056926112186</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>659</v>
@@ -4698,19 +4698,19 @@
         <v>710163</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1998002285039061</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1002</v>
@@ -4719,19 +4719,19 @@
         <v>1086684</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1556804355326606</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3049337</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3009951</v>
+        <v>3010848</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3088436</v>
+        <v>3086871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8900943073887814</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8785976316804502</v>
+        <v>0.8788596778816731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9015072567465139</v>
+        <v>0.9010503973011216</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2636</v>
@@ -4769,19 +4769,19 @@
         <v>2844200</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2793604</v>
+        <v>2796574</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2887123</v>
+        <v>2892873</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8001997714960939</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.785964623755712</v>
+        <v>0.7868003282277706</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8122759040122677</v>
+        <v>0.8138933841295135</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5501</v>
@@ -4790,19 +4790,19 @@
         <v>5893538</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5828686</v>
+        <v>5830869</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5955201</v>
+        <v>5955358</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8443195644673394</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.835028707636578</v>
+        <v>0.8353414852845822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8531535163343534</v>
+        <v>0.8531759763885186</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>30947</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21242</v>
+        <v>21370</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42893</v>
+        <v>43663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1053462613010853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07230971958983978</v>
+        <v>0.07274699682086253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1460126100288022</v>
+        <v>0.1486356340583768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -5159,19 +5159,19 @@
         <v>71582</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57286</v>
+        <v>56942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86782</v>
+        <v>87405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2479429964422104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1984240787098947</v>
+        <v>0.1972345725668264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3005909689633618</v>
+        <v>0.3027491653230373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -5180,19 +5180,19 @@
         <v>102529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82682</v>
+        <v>83994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123295</v>
+        <v>122350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1760254880969483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1419522503919499</v>
+        <v>0.144204380960848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2116790875042618</v>
+        <v>0.2100557287983231</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>262814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250868</v>
+        <v>250098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272519</v>
+        <v>272391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8946537386989147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8539873899711972</v>
+        <v>0.8513643659416231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.92769028041016</v>
+        <v>0.9272530031791375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -5230,19 +5230,19 @@
         <v>217121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201921</v>
+        <v>201298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231417</v>
+        <v>231761</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7520570035577896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6994090310366382</v>
+        <v>0.6972508346769625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8015759212901052</v>
+        <v>0.8027654274331733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>451</v>
@@ -5251,19 +5251,19 @@
         <v>479935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>459169</v>
+        <v>460114</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499782</v>
+        <v>498470</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8239745119030517</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7883209124957382</v>
+        <v>0.7899442712016769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8580477496080502</v>
+        <v>0.855795619039152</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>42060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31655</v>
+        <v>30950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56760</v>
+        <v>56610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08368824699202253</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06298562299338163</v>
+        <v>0.06158381889237953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1129378459836007</v>
+        <v>0.1126397920574403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -5376,19 +5376,19 @@
         <v>78214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61782</v>
+        <v>61211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97050</v>
+        <v>96314</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1495243094998741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1181104811128079</v>
+        <v>0.1170189154365012</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1855338391543695</v>
+        <v>0.184126559394245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -5397,19 +5397,19 @@
         <v>120273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98816</v>
+        <v>101123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142916</v>
+        <v>143747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1172644928804672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09634387884245338</v>
+        <v>0.09859301311461478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1393405850156837</v>
+        <v>0.1401509946887007</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>460515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445815</v>
+        <v>445965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470920</v>
+        <v>471625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9163117530079775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8870621540163993</v>
+        <v>0.8873602079425597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9370143770066184</v>
+        <v>0.9384161811076206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -5447,19 +5447,19 @@
         <v>444870</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426034</v>
+        <v>426770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>461302</v>
+        <v>461873</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8504756905001258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8144661608456303</v>
+        <v>0.8158734406057548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8818895188871919</v>
+        <v>0.8829810845634988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>852</v>
@@ -5468,19 +5468,19 @@
         <v>905386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>882743</v>
+        <v>881912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>926843</v>
+        <v>924536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8827355071195329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8606594149843164</v>
+        <v>0.8598490053112993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9036561211575468</v>
+        <v>0.9014069868853851</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>23660</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15309</v>
+        <v>15706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33516</v>
+        <v>33053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07426932723172566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04805691582022548</v>
+        <v>0.04930302264072286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1052102220623776</v>
+        <v>0.1037546321475186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5593,19 +5593,19 @@
         <v>36612</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25064</v>
+        <v>25377</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50731</v>
+        <v>49674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1088627183063892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07452808782555038</v>
+        <v>0.07545830419378434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1508463856484064</v>
+        <v>0.1477028342363893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5614,19 +5614,19 @@
         <v>60271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45845</v>
+        <v>46058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77309</v>
+        <v>74741</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09203468184209984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07000508839090465</v>
+        <v>0.07033057724445903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1180516785818172</v>
+        <v>0.1141304154539261</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>294905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>285049</v>
+        <v>285512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303256</v>
+        <v>302859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9257306727682744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8947897779376223</v>
+        <v>0.896245367852481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9519430841797739</v>
+        <v>0.9506969773592771</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>301</v>
@@ -5664,19 +5664,19 @@
         <v>299697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>285578</v>
+        <v>286635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311245</v>
+        <v>310932</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8911372816936108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.849153614351594</v>
+        <v>0.8522971657636106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9254719121744498</v>
+        <v>0.9245416958062156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>610</v>
@@ -5685,19 +5685,19 @@
         <v>594603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577565</v>
+        <v>580133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609029</v>
+        <v>608816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9079653181579002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8819483214181827</v>
+        <v>0.8858695845460741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.929994911609095</v>
+        <v>0.929669422755541</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>61678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47476</v>
+        <v>48233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76775</v>
+        <v>78640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1667127978421103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1283263088794895</v>
+        <v>0.1303711407759196</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2075204695069457</v>
+        <v>0.212561510550321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -5810,19 +5810,19 @@
         <v>116480</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97778</v>
+        <v>99647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135132</v>
+        <v>137657</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3007629358231931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2524723269923909</v>
+        <v>0.2572982078019772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.348923877802488</v>
+        <v>0.355443423967081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -5831,19 +5831,19 @@
         <v>178158</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155001</v>
+        <v>156759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205310</v>
+        <v>205406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2352707977654926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.204689594791452</v>
+        <v>0.2070122207000025</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2711270844677554</v>
+        <v>0.271253476705749</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>308286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293189</v>
+        <v>291324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322488</v>
+        <v>321731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8332872021578897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7924795304930543</v>
+        <v>0.787438489449679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8716736911205104</v>
+        <v>0.8696288592240804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -5881,19 +5881,19 @@
         <v>270803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>252151</v>
+        <v>249626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>289505</v>
+        <v>287636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.699237064176807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6510761221975121</v>
+        <v>0.644556576032919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7475276730076091</v>
+        <v>0.7427017921980228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>550</v>
@@ -5902,19 +5902,19 @@
         <v>579089</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>551937</v>
+        <v>551841</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>602246</v>
+        <v>600488</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7647292022345075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7288729155322449</v>
+        <v>0.728746523294252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7953104052085481</v>
+        <v>0.7929877792999975</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>16549</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10152</v>
+        <v>9940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26392</v>
+        <v>27236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07834789781400073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0480611731415241</v>
+        <v>0.04705959138402566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1249506983491065</v>
+        <v>0.128944512717161</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -6027,19 +6027,19 @@
         <v>30213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21296</v>
+        <v>20890</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42060</v>
+        <v>41881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1382206060015442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09742584326070577</v>
+        <v>0.09556618784801792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1924171775545751</v>
+        <v>0.1915992511906559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -6048,19 +6048,19 @@
         <v>46762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35323</v>
+        <v>36027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59786</v>
+        <v>62836</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1087972978196074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08218407070500384</v>
+        <v>0.08382024758117342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1390988090711585</v>
+        <v>0.1461959200224871</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>194672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184829</v>
+        <v>183985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201069</v>
+        <v>201281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9216521021859992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8750493016508935</v>
+        <v>0.8710554872828389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9519388268584759</v>
+        <v>0.9529404086159743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>194</v>
@@ -6098,19 +6098,19 @@
         <v>188374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176527</v>
+        <v>176706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197291</v>
+        <v>197697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8617793939984558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8075828224454247</v>
+        <v>0.8084007488093446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9025741567392942</v>
+        <v>0.9044338121519825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -6119,19 +6119,19 @@
         <v>383046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370022</v>
+        <v>366972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394485</v>
+        <v>393781</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8912027021803925</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8609011909288415</v>
+        <v>0.8538040799775122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9178159292949962</v>
+        <v>0.9161797524188264</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>36532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25391</v>
+        <v>26204</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48625</v>
+        <v>49099</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1388410328900949</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09649750230947247</v>
+        <v>0.09958832369480913</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1847999869821925</v>
+        <v>0.1866025058994818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -6244,19 +6244,19 @@
         <v>57455</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45068</v>
+        <v>43053</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73007</v>
+        <v>72654</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2103707486740267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1650133658786189</v>
+        <v>0.1576364101056906</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2673108170410946</v>
+        <v>0.2660214413379231</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -6265,19 +6265,19 @@
         <v>93988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76876</v>
+        <v>77405</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112220</v>
+        <v>112702</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1752723159611401</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.143361768460995</v>
+        <v>0.1443483152836449</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2092735988795807</v>
+        <v>0.210172411505772</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>226591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214498</v>
+        <v>214024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237732</v>
+        <v>236919</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8611589671099051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8152000130178074</v>
+        <v>0.8133974941005185</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9035024976905278</v>
+        <v>0.900411676305191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -6315,19 +6315,19 @@
         <v>215660</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200108</v>
+        <v>200461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228047</v>
+        <v>230062</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7896292513259733</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7326891829589054</v>
+        <v>0.7339785586620768</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8349866341213812</v>
+        <v>0.8423635898943094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>433</v>
@@ -6336,19 +6336,19 @@
         <v>442250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424018</v>
+        <v>423536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>459362</v>
+        <v>458833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8247276840388599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7907264011204193</v>
+        <v>0.789827588494228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.856638231539005</v>
+        <v>0.8556516847163551</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>56169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42830</v>
+        <v>43113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74000</v>
+        <v>72427</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08555008413308642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06523345215379724</v>
+        <v>0.06566447328927702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1127084196727176</v>
+        <v>0.1103127061965828</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -6461,19 +6461,19 @@
         <v>131397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>109772</v>
+        <v>108832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154185</v>
+        <v>152507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1900737433545786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.158791382718645</v>
+        <v>0.1574316401894269</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2230379805841262</v>
+        <v>0.2206103505761171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -6482,19 +6482,19 @@
         <v>187565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>163923</v>
+        <v>162780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216210</v>
+        <v>214490</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1391587731128804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1216176092796624</v>
+        <v>0.1207700159459775</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1604106329172426</v>
+        <v>0.1591349033741219</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>600389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>582558</v>
+        <v>584131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>613728</v>
+        <v>613445</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9144499158669136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8872915803272822</v>
+        <v>0.8896872938034172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9347665478462014</v>
+        <v>0.934335526710723</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>534</v>
@@ -6532,19 +6532,19 @@
         <v>559897</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>537109</v>
+        <v>538787</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>581522</v>
+        <v>582462</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8099262566454214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7769620194158736</v>
+        <v>0.779389649423883</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8412086172813549</v>
+        <v>0.8425683598105731</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1063</v>
@@ -6553,19 +6553,19 @@
         <v>1160287</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1131642</v>
+        <v>1133362</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1183929</v>
+        <v>1185072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8608412268871196</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8395893670827573</v>
+        <v>0.8408650966258783</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8783823907203379</v>
+        <v>0.8792299840540226</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>46258</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33447</v>
+        <v>34044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60304</v>
+        <v>62408</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05941341849264695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04295881310106859</v>
+        <v>0.04372528348239779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07745402900222287</v>
+        <v>0.08015601912087085</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -6678,19 +6678,19 @@
         <v>105603</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85316</v>
+        <v>86257</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126736</v>
+        <v>130276</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1278228491641509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1032674362396907</v>
+        <v>0.1044059957821609</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1534024793497573</v>
+        <v>0.1576871832117799</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -6699,19 +6699,19 @@
         <v>151861</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127748</v>
+        <v>128810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178541</v>
+        <v>178081</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09463237115734571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07960635997634265</v>
+        <v>0.08026808215114363</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1112578382670185</v>
+        <v>0.1109711471244103</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>732325</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>718279</v>
+        <v>716175</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>745136</v>
+        <v>744539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9405865815073531</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9225459709977771</v>
+        <v>0.9198439808791289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9570411868989313</v>
+        <v>0.9562747165176018</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>669</v>
@@ -6749,19 +6749,19 @@
         <v>720564</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>699431</v>
+        <v>695891</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>740851</v>
+        <v>739910</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8721771508358491</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8465975206502427</v>
+        <v>0.8423128167882201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8967325637603094</v>
+        <v>0.8955940042178385</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1374</v>
@@ -6770,19 +6770,19 @@
         <v>1452889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1426209</v>
+        <v>1426669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1477002</v>
+        <v>1475940</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9053676288426543</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8887421617329815</v>
+        <v>0.8890288528755895</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.920393640023657</v>
+        <v>0.9197319178488563</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>313851</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09246289939990208</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>540</v>
@@ -6895,19 +6895,19 @@
         <v>627556</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.177048554502724</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>847</v>
@@ -6916,19 +6916,19 @@
         <v>941407</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1356711511267499</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3080499</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3050548</v>
+        <v>3048815</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3114686</v>
+        <v>3116927</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.907537100600098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8987135861067912</v>
+        <v>0.8982028372902768</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9176088885623642</v>
+        <v>0.9182692078628039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2798</v>
@@ -6966,19 +6966,19 @@
         <v>2916986</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2868747</v>
+        <v>2864716</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2965737</v>
+        <v>2961617</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8229514454972759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8093419761387538</v>
+        <v>0.8082049645778877</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8367053006987196</v>
+        <v>0.8355428362824471</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5722</v>
@@ -6987,19 +6987,19 @@
         <v>5997485</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5935574</v>
+        <v>5937202</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6056489</v>
+        <v>6055677</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8643288488732501</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8554065304987094</v>
+        <v>0.8556412198057163</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8728322534627025</v>
+        <v>0.872715222348455</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>23442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15986</v>
+        <v>14856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34036</v>
+        <v>33116</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07352124530908428</v>
+        <v>0.0735212453090843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05013805728999676</v>
+        <v>0.04659265160159624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1067485938537139</v>
+        <v>0.1038626754511487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -7356,19 +7356,19 @@
         <v>37035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29383</v>
+        <v>29235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46800</v>
+        <v>47966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.117175366769936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09296576533466003</v>
+        <v>0.0924965979781505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1480737927990988</v>
+        <v>0.1517628833464973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -7377,19 +7377,19 @@
         <v>60476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48748</v>
+        <v>49282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73942</v>
+        <v>75746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09525257458853942</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07678065439567948</v>
+        <v>0.07762152829665989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1164615827267628</v>
+        <v>0.1193031161098203</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>295403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284809</v>
+        <v>285729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>302859</v>
+        <v>303989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9264787546909157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8932514061462864</v>
+        <v>0.8961373245488513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9498619427100033</v>
+        <v>0.9534073483984039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -7427,19 +7427,19 @@
         <v>279026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269261</v>
+        <v>268095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286678</v>
+        <v>286826</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.882824633230064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8519262072009021</v>
+        <v>0.8482371166535028</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9070342346653405</v>
+        <v>0.9075034020218495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>774</v>
@@ -7448,19 +7448,19 @@
         <v>574430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560964</v>
+        <v>559160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>586158</v>
+        <v>585624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9047474254114607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8835384172732375</v>
+        <v>0.8806968838901796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9232193456043207</v>
+        <v>0.9223784717033401</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>93509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75729</v>
+        <v>74973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116192</v>
+        <v>115938</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1762177345037738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1427115264898111</v>
+        <v>0.1412858409296692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2189634494872084</v>
+        <v>0.2184834600997397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -7573,19 +7573,19 @@
         <v>130655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113972</v>
+        <v>114833</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>148106</v>
+        <v>148835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2390789458767576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2085509387717039</v>
+        <v>0.2101269491689653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2710115373497924</v>
+        <v>0.272345773041599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>280</v>
@@ -7594,19 +7594,19 @@
         <v>224165</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198911</v>
+        <v>199383</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248769</v>
+        <v>252797</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2081107599978039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1846660876065683</v>
+        <v>0.1851034638903649</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2309529703436447</v>
+        <v>0.2346927172739132</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>437138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414455</v>
+        <v>414709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>454918</v>
+        <v>455674</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8237822654962262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7810365505127916</v>
+        <v>0.7815165399002604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.857288473510189</v>
+        <v>0.8587141590703309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>519</v>
@@ -7644,19 +7644,19 @@
         <v>415839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>398388</v>
+        <v>397659</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432522</v>
+        <v>431661</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7609210541232424</v>
+        <v>0.7609210541232425</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7289884626502077</v>
+        <v>0.727654226958401</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7914490612282961</v>
+        <v>0.7898730508310349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>819</v>
@@ -7665,19 +7665,19 @@
         <v>852976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>828372</v>
+        <v>824344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878230</v>
+        <v>877758</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7918892400021963</v>
+        <v>0.7918892400021962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7690470296563554</v>
+        <v>0.7653072827260872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8153339123934319</v>
+        <v>0.8148965361096351</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>40979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31395</v>
+        <v>31215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52160</v>
+        <v>51250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1296836296377157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09935239906848702</v>
+        <v>0.09878423302865506</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1650668488651353</v>
+        <v>0.1621867578722429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -7790,19 +7790,19 @@
         <v>61177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51425</v>
+        <v>51065</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72659</v>
+        <v>72757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.171973266896684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1445597765784857</v>
+        <v>0.1435475854110297</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2042495586478327</v>
+        <v>0.2045254271141844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -7811,19 +7811,19 @@
         <v>102157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88815</v>
+        <v>87755</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118871</v>
+        <v>116562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1520795122952817</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1322182939168469</v>
+        <v>0.1306402986788767</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1769626189524255</v>
+        <v>0.1735243581489938</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>275014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263833</v>
+        <v>264743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284598</v>
+        <v>284778</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8703163703622842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8349331511348649</v>
+        <v>0.837813242127757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9006476009315132</v>
+        <v>0.9012157669713442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -7861,19 +7861,19 @@
         <v>294560</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283078</v>
+        <v>282980</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>304312</v>
+        <v>304672</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8280267331033162</v>
+        <v>0.828026733103316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7957504413521671</v>
+        <v>0.7954745728858155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8554402234215142</v>
+        <v>0.8564524145889701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>728</v>
@@ -7882,19 +7882,19 @@
         <v>569574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>552860</v>
+        <v>555169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>582916</v>
+        <v>583976</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8479204877047183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8230373810475751</v>
+        <v>0.8264756418510064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8677817060831533</v>
+        <v>0.8693597013211235</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>62945</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47045</v>
+        <v>47479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80789</v>
+        <v>81629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1689544409065094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1262760057713362</v>
+        <v>0.1274411236372706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2168487024282455</v>
+        <v>0.2191046083514804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -8007,19 +8007,19 @@
         <v>104992</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89241</v>
+        <v>90474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121158</v>
+        <v>123833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2488199465653992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2114918069491817</v>
+        <v>0.2144123227064076</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2871318615144671</v>
+        <v>0.2934707101897659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -8028,19 +8028,19 @@
         <v>167938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145950</v>
+        <v>144857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>193552</v>
+        <v>191275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2113701688370071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1836955898707596</v>
+        <v>0.1823198565036962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2436081215460822</v>
+        <v>0.2407433008119941</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>309614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291770</v>
+        <v>290930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>325514</v>
+        <v>325080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8310455590934906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7831512975717545</v>
+        <v>0.7808953916485196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8737239942286639</v>
+        <v>0.8725588763627294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>420</v>
@@ -8078,19 +8078,19 @@
         <v>316969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>300803</v>
+        <v>298128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332720</v>
+        <v>331487</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7511800534346008</v>
+        <v>0.7511800534346011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7128681384855331</v>
+        <v>0.7065292898102341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7885081930508183</v>
+        <v>0.7855876772935929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>651</v>
@@ -8099,19 +8099,19 @@
         <v>626582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>600968</v>
+        <v>603245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>648570</v>
+        <v>649663</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7886298311629929</v>
+        <v>0.7886298311629928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7563918784539178</v>
+        <v>0.7592566991880064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8163044101292407</v>
+        <v>0.8176801434963041</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>13197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8398</v>
+        <v>8303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19772</v>
+        <v>19456</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0643196397379201</v>
+        <v>0.06431963973792008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04093263915188255</v>
+        <v>0.04046967165904239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09636731274485956</v>
+        <v>0.09482727009489599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -8224,19 +8224,19 @@
         <v>26552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21150</v>
+        <v>20494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34185</v>
+        <v>33161</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1173995839804389</v>
+        <v>0.1173995839804388</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09351169076394494</v>
+        <v>0.09061509017898338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1511475733280041</v>
+        <v>0.1466194986315565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -8245,19 +8245,19 @@
         <v>39749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32283</v>
+        <v>31971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48723</v>
+        <v>48673</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09215157560803879</v>
+        <v>0.0921515756080388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07484287112718979</v>
+        <v>0.07411924972195519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1129577161933053</v>
+        <v>0.1128397422043123</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>191975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185400</v>
+        <v>185716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196774</v>
+        <v>196869</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9356803602620798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9036326872551405</v>
+        <v>0.9051727299051042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9590673608481174</v>
+        <v>0.9595303283409576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -8295,19 +8295,19 @@
         <v>199618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191985</v>
+        <v>193009</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205020</v>
+        <v>205676</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8826004160195613</v>
+        <v>0.8826004160195611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8488524266719959</v>
+        <v>0.8533805013684433</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9064883092360552</v>
+        <v>0.9093849098210165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>680</v>
@@ -8316,19 +8316,19 @@
         <v>391593</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382619</v>
+        <v>382669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399059</v>
+        <v>399371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9078484243919611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8870422838066947</v>
+        <v>0.8871602577956876</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9251571288728103</v>
+        <v>0.9258807502780448</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>29438</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22821</v>
+        <v>22217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39112</v>
+        <v>39175</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1087463886629896</v>
+        <v>0.1087463886629895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0843023359958029</v>
+        <v>0.0820703769212921</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1444791909595776</v>
+        <v>0.1447144656217892</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -8441,19 +8441,19 @@
         <v>40576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32874</v>
+        <v>32772</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49393</v>
+        <v>49679</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1538421208921136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1246420042333266</v>
+        <v>0.1242549868791418</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1872713567949627</v>
+        <v>0.188356927783067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -8462,19 +8462,19 @@
         <v>70014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59050</v>
+        <v>59331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82297</v>
+        <v>82051</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1310007636725124</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.110486515588168</v>
+        <v>0.1110115465885869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1539829435444191</v>
+        <v>0.153521512558798</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>241269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231595</v>
+        <v>231532</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247886</v>
+        <v>248490</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8912536113370104</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8555208090404225</v>
+        <v>0.8552855343782106</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9156976640041971</v>
+        <v>0.9179296230787078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -8512,19 +8512,19 @@
         <v>223174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214357</v>
+        <v>214071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230876</v>
+        <v>230978</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8461578791078864</v>
+        <v>0.8461578791078861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8127286432050371</v>
+        <v>0.8116430722169329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8753579957666732</v>
+        <v>0.8757450131208582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>679</v>
@@ -8533,19 +8533,19 @@
         <v>464443</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452160</v>
+        <v>452406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>475407</v>
+        <v>475126</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8689992363274875</v>
+        <v>0.8689992363274877</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8460170564555809</v>
+        <v>0.8464784874412019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8895134844118321</v>
+        <v>0.8889884534114123</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>87691</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69717</v>
+        <v>71031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106654</v>
+        <v>107577</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.122203607477833</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09715627774307579</v>
+        <v>0.09898651325946101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1486300064698402</v>
+        <v>0.1499161783841139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>240</v>
@@ -8658,19 +8658,19 @@
         <v>171725</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151849</v>
+        <v>152712</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>191204</v>
+        <v>191403</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2224249744656514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1966810954948281</v>
+        <v>0.1977990807820993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2476557090281336</v>
+        <v>0.2479126176038483</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>326</v>
@@ -8679,19 +8679,19 @@
         <v>259416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232088</v>
+        <v>231694</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>287314</v>
+        <v>286821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1741468662113458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1558014545466968</v>
+        <v>0.1555374531261596</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1928749401988831</v>
+        <v>0.1925440137884329</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>629889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>610926</v>
+        <v>610003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>647863</v>
+        <v>646549</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.877796392522167</v>
+        <v>0.8777963925221669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8513699935301597</v>
+        <v>0.8500838216158859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.902843722256924</v>
+        <v>0.9010134867405389</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>720</v>
@@ -8729,19 +8729,19 @@
         <v>600332</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>580853</v>
+        <v>580654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>620208</v>
+        <v>619345</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7775750255343485</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7523442909718663</v>
+        <v>0.7520873823961518</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8033189045051717</v>
+        <v>0.8022009192179007</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1231</v>
@@ -8750,19 +8750,19 @@
         <v>1230221</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1202323</v>
+        <v>1202816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1257549</v>
+        <v>1257943</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8258531337886542</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8071250598011168</v>
+        <v>0.807455986211567</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8441985454533032</v>
+        <v>0.8444625468738403</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>88914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73398</v>
+        <v>72322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107880</v>
+        <v>106415</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1114115160565579</v>
+        <v>0.1114115160565578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09196975734805085</v>
+        <v>0.0906207879728194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1351752571337043</v>
+        <v>0.1333394765322564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -8875,19 +8875,19 @@
         <v>161537</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141536</v>
+        <v>142493</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>179396</v>
+        <v>179207</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1943108321530957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1702520202357674</v>
+        <v>0.1714029498013285</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2157942609532795</v>
+        <v>0.2155664908917999</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>336</v>
@@ -8896,19 +8896,19 @@
         <v>250451</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>227667</v>
+        <v>225171</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>280109</v>
+        <v>276225</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1537072489121625</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1397242170005177</v>
+        <v>0.1381922234899574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.171909180258247</v>
+        <v>0.1695250838103672</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>709158</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>690192</v>
+        <v>691657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>724674</v>
+        <v>725750</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8885884839434421</v>
+        <v>0.888588483943442</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8648247428662956</v>
+        <v>0.8666605234677436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9080302426519492</v>
+        <v>0.9093792120271807</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>826</v>
@@ -8946,19 +8946,19 @@
         <v>669794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>651935</v>
+        <v>652124</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>689795</v>
+        <v>688838</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8056891678469044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7842057390467204</v>
+        <v>0.7844335091082</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8297479797642328</v>
+        <v>0.8285970501986714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1488</v>
@@ -8967,19 +8967,19 @@
         <v>1378952</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1349294</v>
+        <v>1353178</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1401736</v>
+        <v>1404232</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8462927510878375</v>
+        <v>0.8462927510878374</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8280908197417529</v>
+        <v>0.8304749161896329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8602757829994823</v>
+        <v>0.8618077765100427</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>440116</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1246938089421696</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1196</v>
@@ -9092,19 +9092,19 @@
         <v>734249</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1966618111813714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1683</v>
@@ -9113,19 +9113,19 @@
         <v>1174366</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1616884266755929</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3089460</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3051163</v>
+        <v>3050141</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3126713</v>
+        <v>3129453</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8753061910578304</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8644560023795196</v>
+        <v>0.8641664068292403</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.885860707915101</v>
+        <v>0.8866370209723545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4165</v>
@@ -9163,19 +9163,19 @@
         <v>2999314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2963383</v>
+        <v>2955794</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3039443</v>
+        <v>3038291</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8033381888186285</v>
+        <v>0.8033381888186286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7937144464982523</v>
+        <v>0.791681922276841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8140864647736912</v>
+        <v>0.8137779241800673</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7050</v>
@@ -9184,19 +9184,19 @@
         <v>6088773</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6029880</v>
+        <v>6031637</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6140635</v>
+        <v>6145119</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8383115733244071</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8302029938895987</v>
+        <v>0.8304449893943662</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.845451922152179</v>
+        <v>0.8460692686681369</v>
       </c>
     </row>
     <row r="30">
